--- a/Gaming/x_GAMING.xlsx
+++ b/Gaming/x_GAMING.xlsx
@@ -1,26 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAD9E4-4090-4AA1-8F9A-354FA1247E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Market Cap (mil)</t>
+  </si>
+  <si>
+    <t>Month of Fiscal Yr End</t>
+  </si>
+  <si>
+    <t>Last Reported Fiscal Yr  (yyyymm)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EPS0</t>
+  </si>
+  <si>
+    <t>EPS1</t>
+  </si>
+  <si>
+    <t>EPS2</t>
+  </si>
+  <si>
+    <t>EG1</t>
+  </si>
+  <si>
+    <t>EG2</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PEG1</t>
+  </si>
+  <si>
+    <t>PEG2</t>
+  </si>
+  <si>
+    <t>Boyd Gaming</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>NYSE</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Churchill Downs</t>
+  </si>
+  <si>
+    <t>CHDN</t>
+  </si>
+  <si>
+    <t>NSDQ</t>
+  </si>
+  <si>
+    <t>DraftKings</t>
+  </si>
+  <si>
+    <t>DKNG</t>
+  </si>
+  <si>
+    <t>International Game Technology</t>
+  </si>
+  <si>
+    <t>IGT</t>
+  </si>
+  <si>
+    <t>Light &amp; Wonder</t>
+  </si>
+  <si>
+    <t>LNW</t>
+  </si>
+  <si>
+    <t>Las Vegas Sands</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>MGM Resorts International</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>Melco Resorts &amp; Entertainment Limited</t>
+  </si>
+  <si>
+    <t>MLCO</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>Red Rock Resorts</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>Wynn Resorts</t>
+  </si>
+  <si>
+    <t>WYNN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +182,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,14 +247,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +545,745 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10">
+        <v>6349.29</v>
+      </c>
+      <c r="G2" s="10">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10">
+        <v>202312</v>
+      </c>
+      <c r="I2" s="11">
+        <v>64.88</v>
+      </c>
+      <c r="J2" s="10">
+        <v>6.31</v>
+      </c>
+      <c r="K2" s="10">
+        <v>6.19</v>
+      </c>
+      <c r="L2" s="10">
+        <v>6.54</v>
+      </c>
+      <c r="M2" s="12">
+        <f>K2/J2-1</f>
+        <v>-1.9017432646592614E-2</v>
+      </c>
+      <c r="N2" s="12">
+        <f>L2/K2-1</f>
+        <v>5.6542810985460434E-2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>10.48</v>
+      </c>
+      <c r="P2" s="10">
+        <v>9.92</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>-5.51</v>
+      </c>
+      <c r="R2" s="10">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>8813.2900000000009</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>202312</v>
+      </c>
+      <c r="I3" s="8">
+        <v>119.62</v>
+      </c>
+      <c r="J3">
+        <v>4.99</v>
+      </c>
+      <c r="K3">
+        <v>5.44</v>
+      </c>
+      <c r="L3">
+        <v>7.08</v>
+      </c>
+      <c r="M3" s="5">
+        <f>K3/J3-1</f>
+        <v>9.0180360721442865E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <f>L3/K3-1</f>
+        <v>0.30147058823529393</v>
+      </c>
+      <c r="O3">
+        <v>21.99</v>
+      </c>
+      <c r="P3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>2.44</v>
+      </c>
+      <c r="R3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>37724.550000000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>202312</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43.53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-1.73</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.24</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="M4" s="4">
+        <f>K4/J4-1</f>
+        <v>-0.8612716763005781</v>
+      </c>
+      <c r="N4" s="4">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>56.53</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-2.11</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5303.46</v>
+      </c>
+      <c r="G5" s="10">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10">
+        <v>202312</v>
+      </c>
+      <c r="I5" s="11">
+        <v>26.64</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L5" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="M5" s="12">
+        <f>K5/J5-1</f>
+        <v>4.020100502512558E-2</v>
+      </c>
+      <c r="N5" s="12">
+        <f>L5/K5-1</f>
+        <v>0.13526570048309194</v>
+      </c>
+      <c r="O5" s="10">
+        <v>12.87</v>
+      </c>
+      <c r="P5" s="10">
+        <v>11.34</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9202.11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>202312</v>
+      </c>
+      <c r="I6" s="9">
+        <v>102.44</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="4">
+        <f>K6/J6-1</f>
+        <v>1.0057142857142858</v>
+      </c>
+      <c r="N6" s="4">
+        <f>L6/K6-1</f>
+        <v>0.36752136752136755</v>
+      </c>
+      <c r="O6" s="3">
+        <v>29.19</v>
+      </c>
+      <c r="P6" s="3">
+        <v>21.34</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>38645.71</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>202312</v>
+      </c>
+      <c r="I7" s="8">
+        <v>51.28</v>
+      </c>
+      <c r="J7">
+        <v>1.89</v>
+      </c>
+      <c r="K7">
+        <v>2.74</v>
+      </c>
+      <c r="L7">
+        <v>3.14</v>
+      </c>
+      <c r="M7" s="5">
+        <f>K7/J7-1</f>
+        <v>0.44973544973544999</v>
+      </c>
+      <c r="N7" s="5">
+        <f>L7/K7-1</f>
+        <v>0.14598540145985406</v>
+      </c>
+      <c r="O7">
+        <v>18.72</v>
+      </c>
+      <c r="P7">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="Q7">
+        <v>0.42</v>
+      </c>
+      <c r="R7">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>13733.38</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>202312</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42.96</v>
+      </c>
+      <c r="J8">
+        <v>2.67</v>
+      </c>
+      <c r="K8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L8">
+        <v>2.7</v>
+      </c>
+      <c r="M8" s="5">
+        <f>K8/J8-1</f>
+        <v>-5.9925093632958837E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <f>L8/K8-1</f>
+        <v>7.5697211155378641E-2</v>
+      </c>
+      <c r="O8">
+        <v>17.12</v>
+      </c>
+      <c r="P8">
+        <v>15.91</v>
+      </c>
+      <c r="Q8">
+        <v>-2.86</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3169.03</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <v>202312</v>
+      </c>
+      <c r="I9" s="9">
+        <v>7.12</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>L9/K9-1</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O9" s="3">
+        <v>26.37</v>
+      </c>
+      <c r="P9" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>24029.73</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>202312</v>
+      </c>
+      <c r="I10" s="8">
+        <v>41.32</v>
+      </c>
+      <c r="J10">
+        <v>-1.87</v>
+      </c>
+      <c r="K10">
+        <v>-2.1</v>
+      </c>
+      <c r="L10">
+        <v>-2.15</v>
+      </c>
+      <c r="M10" s="5">
+        <f>K10/J10-1</f>
+        <v>0.12299465240641716</v>
+      </c>
+      <c r="N10" s="5">
+        <f>L10/K10-1</f>
+        <v>2.3809523809523725E-2</v>
+      </c>
+      <c r="O10">
+        <v>-19.68</v>
+      </c>
+      <c r="P10">
+        <v>-19.22</v>
+      </c>
+      <c r="Q10">
+        <v>1.6</v>
+      </c>
+      <c r="R10">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>6089.34</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>202312</v>
+      </c>
+      <c r="I11" s="8">
+        <v>57.89</v>
+      </c>
+      <c r="J11">
+        <v>2.94</v>
+      </c>
+      <c r="K11">
+        <v>1.9</v>
+      </c>
+      <c r="L11">
+        <v>2.15</v>
+      </c>
+      <c r="M11" s="5">
+        <f>K11/J11-1</f>
+        <v>-0.35374149659863952</v>
+      </c>
+      <c r="N11" s="5">
+        <f>L11/K11-1</f>
+        <v>0.13157894736842102</v>
+      </c>
+      <c r="O11">
+        <v>30.47</v>
+      </c>
+      <c r="P11">
+        <v>26.93</v>
+      </c>
+      <c r="Q11">
+        <v>-0.86</v>
+      </c>
+      <c r="R11">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>11343.44</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>202312</v>
+      </c>
+      <c r="I12" s="8">
+        <v>101.21</v>
+      </c>
+      <c r="J12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K12">
+        <v>5.28</v>
+      </c>
+      <c r="L12">
+        <v>5.68</v>
+      </c>
+      <c r="M12" s="5">
+        <f>K12/J12-1</f>
+        <v>0.28780487804878074</v>
+      </c>
+      <c r="N12" s="5">
+        <f>L12/K12-1</f>
+        <v>7.575757575757569E-2</v>
+      </c>
+      <c r="O12">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="P12">
+        <v>17.82</v>
+      </c>
+      <c r="Q12">
+        <v>0.67</v>
+      </c>
+      <c r="R12">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f>AVERAGE(M2:M12)</f>
+        <v>0.15478863022479394</v>
+      </c>
+      <c r="N14" s="2">
+        <f>AVERAGE(N2:N12)</f>
+        <v>0.36184507213114842</v>
+      </c>
+      <c r="O14" s="6">
+        <f>AVERAGE(O2:O12)</f>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="P14" s="6">
+        <f>AVERAGE(P2:P12)</f>
+        <v>16.699090909090913</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>AVERAGE(Q2:Q12)</f>
+        <v>-0.24363636363636354</v>
+      </c>
+      <c r="R14" s="6">
+        <f>AVERAGE(R2:R12)</f>
+        <v>1.7827272727272729</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gaming/x_GAMING.xlsx
+++ b/Gaming/x_GAMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAD9E4-4090-4AA1-8F9A-354FA1247E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0206D-0FDE-4190-800F-2BCB857A8E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Company Name</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>WYNN</t>
+  </si>
+  <si>
+    <t>Revenue Growth Story, Road to Profitability</t>
+  </si>
+  <si>
+    <t>Turnaround in later Phase with upwards momentum</t>
+  </si>
+  <si>
+    <t>Turnaround Play, High debt</t>
   </si>
 </sst>
 </file>
@@ -247,13 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -546,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +566,7 @@
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
     <col min="10" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -566,7 +574,7 @@
     <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +599,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -622,65 +630,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>6349.29</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>12</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>202312</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>64.88</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>6.31</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>6.19</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>6.54</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f>K2/J2-1</f>
         <v>-1.9017432646592614E-2</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <f>L2/K2-1</f>
         <v>5.6542810985460434E-2</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>10.48</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>9.92</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>-5.51</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="H3">
         <v>202312</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>119.62</v>
       </c>
       <c r="J3">
@@ -717,11 +725,11 @@
       <c r="L3">
         <v>7.08</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <f>K3/J3-1</f>
         <v>9.0180360721442865E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="2">
         <f>L3/K3-1</f>
         <v>0.30147058823529393</v>
       </c>
@@ -738,7 +746,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -763,7 +771,7 @@
       <c r="H4" s="3">
         <v>202312</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>43.53</v>
       </c>
       <c r="J4" s="3">
@@ -793,66 +801,69 @@
       <c r="R4" s="3">
         <v>0.13</v>
       </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>5303.46</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>12</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>202312</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>26.64</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>1.99</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>2.35</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f>K5/J5-1</f>
         <v>4.020100502512558E-2</v>
       </c>
-      <c r="N5" s="12">
-        <f>L5/K5-1</f>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N12" si="0">L5/K5-1</f>
         <v>0.13526570048309194</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>12.87</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>11.34</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>3.2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -877,7 +888,7 @@
       <c r="H6" s="3">
         <v>202312</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>102.44</v>
       </c>
       <c r="J6" s="3">
@@ -894,7 +905,7 @@
         <v>1.0057142857142858</v>
       </c>
       <c r="N6" s="4">
-        <f>L6/K6-1</f>
+        <f t="shared" si="0"/>
         <v>0.36752136752136755</v>
       </c>
       <c r="O6" s="3">
@@ -909,8 +920,11 @@
       <c r="R6" s="3">
         <v>0.57999999999999996</v>
       </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -935,7 +949,7 @@
       <c r="H7">
         <v>202312</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>51.28</v>
       </c>
       <c r="J7">
@@ -947,12 +961,12 @@
       <c r="L7">
         <v>3.14</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <f>K7/J7-1</f>
         <v>0.44973544973544999</v>
       </c>
-      <c r="N7" s="5">
-        <f>L7/K7-1</f>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
         <v>0.14598540145985406</v>
       </c>
       <c r="O7">
@@ -968,7 +982,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -993,7 +1007,7 @@
       <c r="H8">
         <v>202312</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>42.96</v>
       </c>
       <c r="J8">
@@ -1005,12 +1019,12 @@
       <c r="L8">
         <v>2.7</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <f>K8/J8-1</f>
         <v>-5.9925093632958837E-2</v>
       </c>
-      <c r="N8" s="5">
-        <f>L8/K8-1</f>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
         <v>7.5697211155378641E-2</v>
       </c>
       <c r="O8">
@@ -1026,7 +1040,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1065,7 @@
       <c r="H9" s="3">
         <v>202312</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>7.12</v>
       </c>
       <c r="J9" s="3">
@@ -1067,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="4">
-        <f>L9/K9-1</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="O9" s="3">
@@ -1082,8 +1096,11 @@
       <c r="R9" s="3">
         <v>0.06</v>
       </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1125,7 @@
       <c r="H10">
         <v>202312</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>41.32</v>
       </c>
       <c r="J10">
@@ -1120,12 +1137,12 @@
       <c r="L10">
         <v>-2.15</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="2">
         <f>K10/J10-1</f>
         <v>0.12299465240641716</v>
       </c>
-      <c r="N10" s="5">
-        <f>L10/K10-1</f>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
         <v>2.3809523809523725E-2</v>
       </c>
       <c r="O10">
@@ -1141,7 +1158,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1183,7 @@
       <c r="H11">
         <v>202312</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>57.89</v>
       </c>
       <c r="J11">
@@ -1178,12 +1195,12 @@
       <c r="L11">
         <v>2.15</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="2">
         <f>K11/J11-1</f>
         <v>-0.35374149659863952</v>
       </c>
-      <c r="N11" s="5">
-        <f>L11/K11-1</f>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
         <v>0.13157894736842102</v>
       </c>
       <c r="O11">
@@ -1199,7 +1216,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1241,7 @@
       <c r="H12">
         <v>202312</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>101.21</v>
       </c>
       <c r="J12">
@@ -1236,12 +1253,12 @@
       <c r="L12">
         <v>5.68</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="2">
         <f>K12/J12-1</f>
         <v>0.28780487804878074</v>
       </c>
-      <c r="N12" s="5">
-        <f>L12/K12-1</f>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
         <v>7.575757575757569E-2</v>
       </c>
       <c r="O12">
@@ -1257,29 +1274,29 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M14" s="2">
-        <f>AVERAGE(M2:M12)</f>
+        <f t="shared" ref="M14:R14" si="1">AVERAGE(M2:M12)</f>
         <v>0.15478863022479394</v>
       </c>
       <c r="N14" s="2">
-        <f>AVERAGE(N2:N12)</f>
+        <f t="shared" si="1"/>
         <v>0.36184507213114842</v>
       </c>
-      <c r="O14" s="6">
-        <f>AVERAGE(O2:O12)</f>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
         <v>16.669999999999998</v>
       </c>
-      <c r="P14" s="6">
-        <f>AVERAGE(P2:P12)</f>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
         <v>16.699090909090913</v>
       </c>
-      <c r="Q14" s="6">
-        <f>AVERAGE(Q2:Q12)</f>
+      <c r="Q14" s="5">
+        <f t="shared" si="1"/>
         <v>-0.24363636363636354</v>
       </c>
-      <c r="R14" s="6">
-        <f>AVERAGE(R2:R12)</f>
+      <c r="R14" s="5">
+        <f t="shared" si="1"/>
         <v>1.7827272727272729</v>
       </c>
     </row>

--- a/Gaming/x_GAMING.xlsx
+++ b/Gaming/x_GAMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0206D-0FDE-4190-800F-2BCB857A8E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0182A4-8866-4D80-9A12-2D56F9F4462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Company Name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Turnaround Play, High debt</t>
+  </si>
+  <si>
+    <t>ex growth, vermutlich halbes Jahr zu frühes Timing</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,6 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +561,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +691,9 @@
       <c r="R2" s="9">
         <v>1.75</v>
       </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -831,7 +838,7 @@
         <v>202312</v>
       </c>
       <c r="I5" s="10">
-        <v>26.64</v>
+        <v>20.27</v>
       </c>
       <c r="J5" s="9">
         <v>1.99</v>
@@ -850,17 +857,21 @@
         <f t="shared" ref="N5:N12" si="0">L5/K5-1</f>
         <v>0.13526570048309194</v>
       </c>
-      <c r="O5" s="9">
-        <v>12.87</v>
-      </c>
-      <c r="P5" s="9">
-        <v>11.34</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>3.2</v>
+      <c r="O5" s="12">
+        <f>I5/K5</f>
+        <v>9.7922705314009661</v>
+      </c>
+      <c r="P5" s="12">
+        <f>I5/L5</f>
+        <v>8.6255319148936174</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>O5/(M5*100)</f>
+        <v>2.4358272946859931</v>
       </c>
       <c r="R5" s="9">
-        <v>0.84</v>
+        <f>P5/(N5*100)</f>
+        <v>0.63767325227963456</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1285,19 +1296,19 @@
       </c>
       <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>16.669999999999998</v>
+        <v>16.362227053140096</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="1"/>
-        <v>16.699090909090913</v>
+        <v>16.452321083172144</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="1"/>
-        <v>-0.24363636363636354</v>
+        <v>-0.31310660957400055</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="1"/>
-        <v>1.7827272727272729</v>
+        <v>1.7643339320254214</v>
       </c>
     </row>
   </sheetData>

--- a/Gaming/x_GAMING.xlsx
+++ b/Gaming/x_GAMING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0182A4-8866-4D80-9A12-2D56F9F4462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216AB19-1E88-4ED8-952B-59244F150D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="-135" windowWidth="24300" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="9">
-        <v>6349.29</v>
+        <v>6285.69</v>
       </c>
       <c r="G2" s="9">
         <v>12</v>
@@ -660,24 +660,24 @@
         <v>202312</v>
       </c>
       <c r="I2" s="10">
-        <v>64.88</v>
+        <v>65.66</v>
       </c>
       <c r="J2" s="9">
-        <v>6.31</v>
+        <v>6.21</v>
       </c>
       <c r="K2" s="9">
-        <v>6.19</v>
+        <v>6.09</v>
       </c>
       <c r="L2" s="9">
-        <v>6.54</v>
+        <v>6.6</v>
       </c>
       <c r="M2" s="11">
         <f>K2/J2-1</f>
-        <v>-1.9017432646592614E-2</v>
+        <v>-1.9323671497584516E-2</v>
       </c>
       <c r="N2" s="11">
         <f>L2/K2-1</f>
-        <v>5.6542810985460434E-2</v>
+        <v>8.3743842364532028E-2</v>
       </c>
       <c r="O2" s="9">
         <v>10.48</v>
@@ -712,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>8813.2900000000009</v>
+        <v>8806.6</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -721,24 +721,24 @@
         <v>202312</v>
       </c>
       <c r="I3" s="7">
-        <v>119.62</v>
+        <v>119.51</v>
       </c>
       <c r="J3">
-        <v>4.99</v>
+        <v>5.44</v>
       </c>
       <c r="K3">
-        <v>5.44</v>
+        <v>5.2</v>
       </c>
       <c r="L3">
         <v>7.08</v>
       </c>
       <c r="M3" s="2">
         <f>K3/J3-1</f>
-        <v>9.0180360721442865E-2</v>
+        <v>-4.4117647058823595E-2</v>
       </c>
       <c r="N3" s="2">
         <f>L3/K3-1</f>
-        <v>0.30147058823529393</v>
+        <v>0.36153846153846159</v>
       </c>
       <c r="O3">
         <v>21.99</v>
@@ -770,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="3">
-        <v>37724.550000000003</v>
+        <v>39319.160000000003</v>
       </c>
       <c r="G4" s="3">
         <v>12</v>
@@ -779,21 +779,18 @@
         <v>202312</v>
       </c>
       <c r="I4" s="8">
-        <v>43.53</v>
+        <v>45.37</v>
       </c>
       <c r="J4" s="3">
-        <v>-1.73</v>
+        <v>-0.24</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.24</v>
+        <v>-1.54</v>
       </c>
       <c r="L4" s="3">
         <v>0.77</v>
       </c>
-      <c r="M4" s="4">
-        <f>K4/J4-1</f>
-        <v>-0.8612716763005781</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4">
         <f>1</f>
         <v>1</v>
@@ -829,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="9">
-        <v>5303.46</v>
+        <v>4222.46</v>
       </c>
       <c r="G5" s="9">
         <v>12</v>
@@ -838,40 +835,40 @@
         <v>202312</v>
       </c>
       <c r="I5" s="10">
-        <v>20.27</v>
+        <v>21.21</v>
       </c>
       <c r="J5" s="9">
-        <v>1.99</v>
+        <v>1.48</v>
       </c>
       <c r="K5" s="9">
-        <v>2.0699999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="L5" s="9">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="M5" s="11">
         <f>K5/J5-1</f>
-        <v>4.020100502512558E-2</v>
+        <v>-0.18918918918918926</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" ref="N5:N12" si="0">L5/K5-1</f>
-        <v>0.13526570048309194</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="O5" s="12">
         <f>I5/K5</f>
-        <v>9.7922705314009661</v>
+        <v>17.675000000000001</v>
       </c>
       <c r="P5" s="12">
         <f>I5/L5</f>
-        <v>8.6255319148936174</v>
+        <v>9.6849315068493151</v>
       </c>
       <c r="Q5" s="12">
         <f>O5/(M5*100)</f>
-        <v>2.4358272946859931</v>
+        <v>-0.93424999999999969</v>
       </c>
       <c r="R5" s="9">
         <f>P5/(N5*100)</f>
-        <v>0.63767325227963456</v>
+        <v>0.11739310917393109</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -891,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="3">
-        <v>9202.11</v>
+        <v>8923.64</v>
       </c>
       <c r="G6" s="3">
         <v>12</v>
@@ -900,24 +897,24 @@
         <v>202312</v>
       </c>
       <c r="I6" s="8">
-        <v>102.44</v>
+        <v>99.34</v>
       </c>
       <c r="J6" s="3">
-        <v>1.75</v>
+        <v>3.78</v>
       </c>
       <c r="K6" s="3">
-        <v>3.51</v>
+        <v>1.79</v>
       </c>
       <c r="L6" s="3">
-        <v>4.8</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M6" s="4">
         <f>K6/J6-1</f>
-        <v>1.0057142857142858</v>
+        <v>-0.5264550264550264</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>0.36752136752136755</v>
+        <v>1.8547486033519553</v>
       </c>
       <c r="O6" s="3">
         <v>29.19</v>
@@ -952,7 +949,7 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>38645.71</v>
+        <v>39509.07</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -961,24 +958,24 @@
         <v>202312</v>
       </c>
       <c r="I7" s="7">
-        <v>51.28</v>
+        <v>52.59</v>
       </c>
       <c r="J7">
-        <v>1.89</v>
+        <v>2.74</v>
       </c>
       <c r="K7">
-        <v>2.74</v>
+        <v>1.91</v>
       </c>
       <c r="L7">
         <v>3.14</v>
       </c>
       <c r="M7" s="2">
         <f>K7/J7-1</f>
-        <v>0.44973544973544999</v>
+        <v>-0.30291970802919721</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0.14598540145985406</v>
+        <v>0.64397905759162311</v>
       </c>
       <c r="O7">
         <v>18.72</v>
@@ -1010,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>13733.38</v>
+        <v>14538.34</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -1019,24 +1016,24 @@
         <v>202312</v>
       </c>
       <c r="I8" s="7">
-        <v>42.96</v>
+        <v>45.86</v>
       </c>
       <c r="J8">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="K8">
-        <v>2.5099999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L8">
         <v>2.7</v>
       </c>
       <c r="M8" s="2">
         <f>K8/J8-1</f>
-        <v>-5.9925093632958837E-2</v>
+        <v>-8.064516129032262E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>7.5697211155378641E-2</v>
+        <v>0.1842105263157896</v>
       </c>
       <c r="O8">
         <v>17.12</v>
@@ -1068,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="3">
-        <v>3169.03</v>
+        <v>3213.54</v>
       </c>
       <c r="G9" s="3">
         <v>12</v>
@@ -1077,23 +1074,22 @@
         <v>202312</v>
       </c>
       <c r="I9" s="8">
-        <v>7.12</v>
+        <v>7.22</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K9" s="3">
-        <v>0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="L9" s="3">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="M9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="4">
         <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666665</v>
       </c>
       <c r="O9" s="3">
         <v>26.37</v>
@@ -1128,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>24029.73</v>
+        <v>21401.11</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1137,24 +1133,24 @@
         <v>202312</v>
       </c>
       <c r="I10" s="7">
-        <v>41.32</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J10">
-        <v>-1.87</v>
+        <v>-2.1</v>
       </c>
       <c r="K10">
-        <v>-2.1</v>
+        <v>-1.93</v>
       </c>
       <c r="L10">
         <v>-2.15</v>
       </c>
       <c r="M10" s="2">
         <f>K10/J10-1</f>
-        <v>0.12299465240641716</v>
+        <v>-8.0952380952380998E-2</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>2.3809523809523725E-2</v>
+        <v>0.11398963730569944</v>
       </c>
       <c r="O10">
         <v>-19.68</v>
@@ -1186,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>6089.34</v>
+        <v>6295.51</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1195,24 +1191,24 @@
         <v>202312</v>
       </c>
       <c r="I11" s="7">
-        <v>57.89</v>
+        <v>59.85</v>
       </c>
       <c r="J11">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K11">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="L11">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="M11" s="2">
         <f>K11/J11-1</f>
-        <v>-0.35374149659863952</v>
+        <v>-0.19487179487179485</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>0.13157894736842102</v>
+        <v>0.39490445859872603</v>
       </c>
       <c r="O11">
         <v>30.47</v>
@@ -1244,7 +1240,7 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>11343.44</v>
+        <v>11893.75</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1253,24 +1249,24 @@
         <v>202312</v>
       </c>
       <c r="I12" s="7">
-        <v>101.21</v>
+        <v>106.12</v>
       </c>
       <c r="J12">
-        <v>4.0999999999999996</v>
+        <v>5.28</v>
       </c>
       <c r="K12">
-        <v>5.28</v>
+        <v>3.24</v>
       </c>
       <c r="L12">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="M12" s="2">
         <f>K12/J12-1</f>
-        <v>0.28780487804878074</v>
+        <v>-0.38636363636363635</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>7.575757575757569E-2</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="O12">
         <v>19.170000000000002</v>
@@ -1288,27 +1284,27 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M14" s="2">
         <f t="shared" ref="M14:R14" si="1">AVERAGE(M2:M12)</f>
-        <v>0.15478863022479394</v>
+        <v>-0.28248382157079555</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="1"/>
-        <v>0.36184507213114842</v>
+        <v>0.65564678064243509</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>16.362227053140096</v>
+        <v>17.150500000000001</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="1"/>
-        <v>16.452321083172144</v>
+        <v>16.548630136986301</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="1"/>
-        <v>-0.31310660957400055</v>
+        <v>-0.61947727272727271</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="1"/>
-        <v>1.7643339320254214</v>
+        <v>1.7170357371976301</v>
       </c>
     </row>
   </sheetData>
